--- a/app/controller/templatereporte.xlsx
+++ b/app/controller/templatereporte.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22026"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\treshermanos\app\controller\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5D8CDA7-8494-49A0-B053-8AB1A41EBD5F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E95197CF-CB30-4061-8437-2E30C6AC495E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -68,7 +68,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -98,6 +98,13 @@
     <font>
       <b/>
       <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -150,7 +157,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -170,6 +177,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -185,6 +193,61 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>38101</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>40698</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>133351</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagen 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{80B05DA7-29CD-4FE6-AEBF-7A561CEF5203}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="57150" y="38101"/>
+          <a:ext cx="1688523" cy="476250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -474,10 +537,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A3:K9"/>
+  <dimension ref="A3:K13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -510,7 +573,7 @@
       <c r="J3" s="9"/>
       <c r="K3" s="9"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -523,7 +586,7 @@
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -599,6 +662,9 @@
         <v>5</v>
       </c>
     </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E13" s="11"/>
+    </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="1">
@@ -606,5 +672,6 @@
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="70" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>